--- a/Data/DETOX-filtradoJ.xlsx
+++ b/Data/DETOX-filtradoJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74CEC3-FA53-4D6E-88E6-64FD72A24314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EC746-3AD6-4618-93F2-584960A7EF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C4DF792-61C2-4C1F-B706-B54AC7B57209}"/>
   </bookViews>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAAFB1F-B83E-4F51-B439-DFE15631A139}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
